--- a/Model_setup/ISONE_data_file/Scenarios/Generator_files/generators-2030-Offshore-2x.xlsx
+++ b/Model_setup/ISONE_data_file/Scenarios/Generator_files/generators-2030-Offshore-2x.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Desktop\ISONE_SANDY\ISONE_UCED\Model_setup\ISONE_data_file\Scenarios\Generator_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakdemi\Documents\GitHub\ISONE_UCED_Sandy\Model_setup\ISONE_data_file\Scenarios\Generator_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="516" windowWidth="28776" windowHeight="15900"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="28776" windowHeight="15900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generators (dispatch)" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4488" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4488" uniqueCount="1091">
   <si>
     <t>State</t>
   </si>
@@ -3297,6 +3297,18 @@
   </si>
   <si>
     <t>Sheet: Generators (Renewables)</t>
+  </si>
+  <si>
+    <t>CT_NG</t>
+  </si>
+  <si>
+    <t>NEMA_NG</t>
+  </si>
+  <si>
+    <t>SEMA_NG</t>
+  </si>
+  <si>
+    <t>WCMA_NG</t>
   </si>
 </sst>
 </file>
@@ -3798,9 +3810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N347"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P342" sqref="P342"/>
+      <selection pane="bottomLeft" activeCell="D350" sqref="D350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -19899,7 +19911,7 @@
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="2" t="s">
-        <v>1076</v>
+        <v>1087</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>698</v>
@@ -19951,7 +19963,7 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="2" t="s">
-        <v>1077</v>
+        <v>1088</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>698</v>
@@ -20003,7 +20015,7 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="2" t="s">
-        <v>1078</v>
+        <v>1089</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>698</v>
@@ -20055,13 +20067,13 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="2" t="s">
-        <v>1079</v>
+        <v>1090</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>698</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>1062</v>
+        <v>6</v>
       </c>
       <c r="D347" s="2">
         <v>56</v>
@@ -20117,7 +20129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
